--- a/FA20_Script_ManageTransactionsAssetInvoices_21C.xlsx
+++ b/FA20_Script_ManageTransactionsAssetInvoices_21C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup_IGA_Master\UIAF_Selenium_IGA\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E82ECE-711E-40DE-851D-FC8F0C4002D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9E6771-D093-4B15-9BE9-FDFEB77B5346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ManageTransactnAssetInvoice" sheetId="30" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AllObjects!$A$1:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ManageTransactnAssetInvoice!$A$1:$N$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ManageTransactnAssetInvoice!$A$1:$N$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="229">
   <si>
     <t>SCREENSHOT</t>
   </si>
   <si>
-    <t>Home Page</t>
-  </si>
-  <si>
     <t>TESTCASE NAME</t>
   </si>
   <si>
@@ -65,12 +61,654 @@
     <t>EXPECTED</t>
   </si>
   <si>
+    <t>SELECTOBJECTTYPE</t>
+  </si>
+  <si>
+    <t>OBJECTTYPE</t>
+  </si>
+  <si>
+    <t>STEP NO</t>
+  </si>
+  <si>
+    <t>TESTDATA EXCEL NAME</t>
+  </si>
+  <si>
+    <t>INPUT EXCEL</t>
+  </si>
+  <si>
+    <t>SHEET NAME</t>
+  </si>
+  <si>
+    <t>OBJECTNAME</t>
+  </si>
+  <si>
+    <t>OBJECT_PROPERTY</t>
+  </si>
+  <si>
+    <t>PROPERTY_VALUE</t>
+  </si>
+  <si>
+    <t>ClickElement</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>signin</t>
+  </si>
+  <si>
+    <t>btnActive</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Payables</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>SetText</t>
+  </si>
+  <si>
+    <t>pt1:_UIShome::icon</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>XPath</t>
+  </si>
+  <si>
+    <t>Invoices</t>
+  </si>
+  <si>
+    <t>ExplicitWaitType</t>
+  </si>
+  <si>
+    <t>Invoices Page</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Step 9</t>
+  </si>
+  <si>
+    <t>CreateInvoiceLink</t>
+  </si>
+  <si>
+    <t>//a[text()='Create Invoice']</t>
+  </si>
+  <si>
+    <t>Create Invoices Page</t>
+  </si>
+  <si>
+    <t>Step 10</t>
+  </si>
+  <si>
+    <t>BusinessUnit</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>InvoiceGroup</t>
+  </si>
+  <si>
+    <t>//div[@title='Tasks']</t>
+  </si>
+  <si>
+    <t>okbtn</t>
+  </si>
+  <si>
+    <t>//button[@id='_FOd1::msgDlg::cancel']</t>
+  </si>
+  <si>
+    <t>InvoiceNumber</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>LineAmt1</t>
+  </si>
+  <si>
+    <t>//div[@id='_FOpt1:_FOr1:0:_FOSritemNode_payables_payables_invoices:0:_FOTpsl1']</t>
+  </si>
+  <si>
+    <t>TaskDiv</t>
+  </si>
+  <si>
+    <t>Line2</t>
+  </si>
+  <si>
+    <t>LineAmt2</t>
+  </si>
+  <si>
+    <t>DistributionCombination1</t>
+  </si>
+  <si>
+    <t>DistributionCombination2</t>
+  </si>
+  <si>
+    <t>TasksPanelDiv</t>
+  </si>
+  <si>
+    <t>//div[contains(@id,'TLpanelform')][@class='x19']</t>
+  </si>
+  <si>
+    <t>//tr[td[1][label[text()='Business Unit']]]/td[2]/span/input</t>
+  </si>
+  <si>
+    <t>//tr[td[1][label[text()='Supplier']]]/td[2]/input</t>
+  </si>
+  <si>
+    <t>//tr[td[1][label[text()='Number']]]/td[2]/input</t>
+  </si>
+  <si>
+    <t>//tr[td[1][label[text()='Amount']]]/td[2]/table/tbody/tr/td[3]/table/tbody/tr/td[2]/span/input</t>
+  </si>
+  <si>
+    <t>//tr[td[1][label[text()='Date']]]/td[2]/input</t>
+  </si>
+  <si>
+    <t>//input[contains(@id,'ap1:at2:_ATp:ta2:0:i26::content')]</t>
+  </si>
+  <si>
+    <t>//input[contains(@id,':_ATp:ta2:0:kf1CS::content')]</t>
+  </si>
+  <si>
+    <t>//input[contains(@id,'at2:_ATp:ta2:1:i26::content')]</t>
+  </si>
+  <si>
+    <t>//input[contains(@id,'ap1:at2:_ATp:ta2:1:kf1CS::content')]</t>
+  </si>
+  <si>
+    <t>SaveNClose</t>
+  </si>
+  <si>
+    <t>//a[text()='Manage Invoices']</t>
+  </si>
+  <si>
+    <t>ManageInvoicesLink</t>
+  </si>
+  <si>
+    <t>//tr[td[1][label[text()='Invoice Number']]]/td[2]/table/tbody/tr/td[2]/table/tbody/tr/td[1]/span/input</t>
+  </si>
+  <si>
+    <t>SearchInvoiceNo</t>
+  </si>
+  <si>
+    <t>SearchInvoiceGrp</t>
+  </si>
+  <si>
+    <t>//tr[td[1][label[text()='Invoice Group']]]/td[2]/table/tbody/tr/td[2]/table/tbody/tr/td[1]/span/input</t>
+  </si>
+  <si>
+    <t>//button[text()='Search']</t>
+  </si>
+  <si>
+    <t>SearchBtn</t>
+  </si>
+  <si>
+    <t>//table[@summary='Search Results']/tbody/tr/td[2]/span/a</t>
+  </si>
+  <si>
+    <t>InvoiceLink</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>//a[text()='Actions']</t>
+  </si>
+  <si>
+    <t>//td[text()='Validate']</t>
+  </si>
+  <si>
+    <t>ValidateLink</t>
+  </si>
+  <si>
+    <t>CheckValidatedStatus</t>
+  </si>
+  <si>
+    <t>//td[text()='Account in Draft']</t>
+  </si>
+  <si>
+    <t>AccountInDraftLink</t>
+  </si>
+  <si>
+    <t>ConfOk</t>
+  </si>
+  <si>
+    <t>//table[@summary='Status']/tbody/tr[3]/td[2]/span/span/a[text()='Draft']</t>
+  </si>
+  <si>
+    <t>AccountingStatusLink</t>
+  </si>
+  <si>
+    <t>//td[text()='Approval']</t>
+  </si>
+  <si>
+    <t>ApprovalLink</t>
+  </si>
+  <si>
+    <t>//td[text()='Initiate']</t>
+  </si>
+  <si>
+    <t>InitiateLink</t>
+  </si>
+  <si>
+    <t>//table[@summary='Status']/tbody/tr/td[2]/span/span[text()='Initiated']</t>
+  </si>
+  <si>
+    <t>InitateStatus</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>//a/span/span[@class='x1ig']</t>
+  </si>
+  <si>
+    <t>Manage Invoices Page</t>
+  </si>
+  <si>
+    <t>Step 12</t>
+  </si>
+  <si>
+    <t>Step 13</t>
+  </si>
+  <si>
+    <t>Step 14</t>
+  </si>
+  <si>
+    <t>Step 15</t>
+  </si>
+  <si>
+    <t>Step 16</t>
+  </si>
+  <si>
+    <t>Step 17</t>
+  </si>
+  <si>
+    <t>Step 18</t>
+  </si>
+  <si>
+    <t>Step 19</t>
+  </si>
+  <si>
+    <t>Step 20</t>
+  </si>
+  <si>
+    <t>Step 23</t>
+  </si>
+  <si>
+    <t>Step 27</t>
+  </si>
+  <si>
+    <t>Step 30</t>
+  </si>
+  <si>
+    <t>Step 31</t>
+  </si>
+  <si>
+    <t>Step 32</t>
+  </si>
+  <si>
+    <t>Step 34</t>
+  </si>
+  <si>
+    <t>Step 35</t>
+  </si>
+  <si>
+    <t>Step 36</t>
+  </si>
+  <si>
+    <t>Step 37</t>
+  </si>
+  <si>
+    <t>Step 38</t>
+  </si>
+  <si>
+    <t>Step 39</t>
+  </si>
+  <si>
+    <t>Step 40</t>
+  </si>
+  <si>
+    <t>Step 41</t>
+  </si>
+  <si>
+    <t>Step 42</t>
+  </si>
+  <si>
+    <t>Step 43</t>
+  </si>
+  <si>
+    <t>Step 44</t>
+  </si>
+  <si>
+    <t>Step 45</t>
+  </si>
+  <si>
+    <t>Step 46</t>
+  </si>
+  <si>
+    <t>Step 47</t>
+  </si>
+  <si>
+    <t>Step 48</t>
+  </si>
+  <si>
+    <t>Step 49</t>
+  </si>
+  <si>
+    <t>Step 50</t>
+  </si>
+  <si>
+    <t>Step 51</t>
+  </si>
+  <si>
+    <t>Step 52</t>
+  </si>
+  <si>
+    <t>Step 53</t>
+  </si>
+  <si>
+    <t>Step 54</t>
+  </si>
+  <si>
+    <t>Step 55</t>
+  </si>
+  <si>
+    <t>VerifyText</t>
+  </si>
+  <si>
+    <t>Validated</t>
+  </si>
+  <si>
+    <t>Step 56</t>
+  </si>
+  <si>
+    <t>Step 58</t>
+  </si>
+  <si>
+    <t>Step 60</t>
+  </si>
+  <si>
+    <t>UsernameClick</t>
+  </si>
+  <si>
+    <t>SettingsAndActions</t>
+  </si>
+  <si>
+    <t>SignOut</t>
+  </si>
+  <si>
+    <t>LogoutConsentDiv</t>
+  </si>
+  <si>
+    <t>ConfirmBtn</t>
+  </si>
+  <si>
+    <t>//div[@class='xk9']</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'Sign Out')]</t>
+  </si>
+  <si>
+    <t>//div[@class='contentContainer']</t>
+  </si>
+  <si>
+    <t>//button[@name='Confirm']</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>//input[contains(@id,':_ATp:ta2:1:i34::content')]</t>
+  </si>
+  <si>
+    <t>Description2</t>
+  </si>
+  <si>
+    <t>//a[text()='Invoices']</t>
+  </si>
+  <si>
+    <t>NavigatorInvoicesLink</t>
+  </si>
+  <si>
+    <t>//tr[td[1][label[text()='Description']]]/td[2]/textarea</t>
+  </si>
+  <si>
+    <t>NeedsRevalidation</t>
+  </si>
+  <si>
+    <t>TotalWithTax</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>InvoiceActions</t>
+  </si>
+  <si>
+    <t>//span[text()='Needs revalidation']</t>
+  </si>
+  <si>
+    <t>//div[div[span[text()='Total']]]/div[2]/table/tbody/tr/td[3]/span</t>
+  </si>
+  <si>
+    <t>Step 21</t>
+  </si>
+  <si>
+    <t>Step 22</t>
+  </si>
+  <si>
+    <t>SelectInvoice</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>EditInvoiceBtn</t>
+  </si>
+  <si>
+    <t>Edit Invoices Page</t>
+  </si>
+  <si>
+    <t>//table[@summary='Search Results']/tbody/tr/td[1]</t>
+  </si>
+  <si>
+    <t>//span[text()='Validation']</t>
+  </si>
+  <si>
+    <t>//div[@title='Edit']/a</t>
+  </si>
+  <si>
+    <t>//a[text()='Invoice Actions']</t>
+  </si>
+  <si>
+    <t>//a/span[text()='Save']</t>
+  </si>
+  <si>
+    <t>InvoiceType</t>
+  </si>
+  <si>
+    <t>//tr[td/label[text()='Type']]/td[2]/select</t>
+  </si>
+  <si>
+    <t>SelectItemByVisibleText</t>
+  </si>
+  <si>
+    <t>AssetLink</t>
+  </si>
+  <si>
+    <t>//a[text()='Asset']</t>
+  </si>
+  <si>
+    <t>TrackAsAsset</t>
+  </si>
+  <si>
+    <t>//a[text()='Distribution']</t>
+  </si>
+  <si>
+    <t>DistributionLink</t>
+  </si>
+  <si>
+    <t>Step 11</t>
+  </si>
+  <si>
+    <t>Step 59</t>
+  </si>
+  <si>
+    <t>Manage Transactions Asset Invoices</t>
+  </si>
+  <si>
+    <t>ExpandLines</t>
+  </si>
+  <si>
+    <t>Step 68</t>
+  </si>
+  <si>
+    <t>Step 69</t>
+  </si>
+  <si>
+    <t>//a[contains(@id,'UIScmil1u')]</t>
+  </si>
+  <si>
+    <t>Step 29</t>
+  </si>
+  <si>
+    <t>Requester</t>
+  </si>
+  <si>
+    <t>//tr[td[1][label[text()='Requester']]]/td[2]/input</t>
+  </si>
+  <si>
+    <t>//*[@id="pt1:_FOr1:1:_FOSritemNode_payables_payables_invoices:0:MAnt2:1:pm1:r1:0:ap1:r2:0:i1::content"]</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>WaitForDuration</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Step 24</t>
+  </si>
+  <si>
+    <t>Step 25</t>
+  </si>
+  <si>
+    <t>Step 26</t>
+  </si>
+  <si>
+    <t>Step 28</t>
+  </si>
+  <si>
+    <t>Step 33</t>
+  </si>
+  <si>
+    <t>Step 57</t>
+  </si>
+  <si>
+    <t>Step 61</t>
+  </si>
+  <si>
+    <t>Step 62</t>
+  </si>
+  <si>
+    <t>Step 63</t>
+  </si>
+  <si>
+    <t>Step 64</t>
+  </si>
+  <si>
+    <t>Step 65</t>
+  </si>
+  <si>
+    <t>Step 66</t>
+  </si>
+  <si>
+    <t>Step 67</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'ta2::db')]/table/tbody/tr[1]/td[2]</t>
+  </si>
+  <si>
+    <t>//a[text()='Validated']</t>
+  </si>
+  <si>
+    <t>CHANGE HISTORY</t>
+  </si>
+  <si>
+    <t>LongExplicitWait</t>
+  </si>
+  <si>
+    <t>HighestExplicitWait</t>
+  </si>
+  <si>
+    <t>LowWait</t>
+  </si>
+  <si>
+    <t>MediumWait</t>
+  </si>
+  <si>
+    <t>HighWait</t>
+  </si>
+  <si>
+    <t>HighestWait</t>
+  </si>
+  <si>
+    <t>//table[@summary='Invoice Lines']/tbody/tr[@_afrrk='1']/td[1]</t>
+  </si>
+  <si>
+    <t>//div[@title='Payables']</t>
+  </si>
+  <si>
+    <t>//a[@title='Invoices']</t>
+  </si>
+  <si>
+    <t>//*[@id="_FOpt1:_FOr1:0:_FONSr2:0:MAnt2:1:pm1:r1:0:ap1:sh2::_afrDscl"]</t>
+  </si>
+  <si>
+    <t>//*[@id="_FOpt1:_FOr1:0:_FONSr2:0:MAnt2:1:pm1:r1:0:ap1:cb14"]</t>
+  </si>
+  <si>
     <t>Step 1</t>
   </si>
   <si>
     <t>Step 2</t>
   </si>
   <si>
+    <t>Step 3</t>
+  </si>
+  <si>
     <t>Step 4</t>
   </si>
   <si>
@@ -80,730 +718,10 @@
     <t>Step 6</t>
   </si>
   <si>
-    <t>SELECTOBJECTTYPE</t>
-  </si>
-  <si>
-    <t>OBJECTTYPE</t>
-  </si>
-  <si>
-    <t>Browser</t>
-  </si>
-  <si>
-    <t>STEP NO</t>
-  </si>
-  <si>
-    <t>TESTDATA EXCEL NAME</t>
-  </si>
-  <si>
-    <t>INPUT EXCEL</t>
-  </si>
-  <si>
-    <t>SHEET NAME</t>
-  </si>
-  <si>
-    <t>OBJECTNAME</t>
-  </si>
-  <si>
-    <t>OBJECT_PROPERTY</t>
-  </si>
-  <si>
-    <t>PROPERTY_VALUE</t>
-  </si>
-  <si>
-    <t>ClickElement</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t>Login Page</t>
-  </si>
-  <si>
-    <t>Step 3</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>userid</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>signin</t>
-  </si>
-  <si>
-    <t>btnActive</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Payables</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>SetText</t>
-  </si>
-  <si>
-    <t>LaunchApplication</t>
-  </si>
-  <si>
-    <t>pt1:_UIShome::icon</t>
-  </si>
-  <si>
     <t>Step 7</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>XPath</t>
-  </si>
-  <si>
-    <t>Invoices</t>
-  </si>
-  <si>
-    <t>ExplicitWaitType</t>
-  </si>
-  <si>
-    <t>Invoices Page</t>
-  </si>
-  <si>
     <t>Step 8</t>
-  </si>
-  <si>
-    <t>Tasks</t>
-  </si>
-  <si>
-    <t>Step 9</t>
-  </si>
-  <si>
-    <t>CreateInvoiceLink</t>
-  </si>
-  <si>
-    <t>//a[text()='Create Invoice']</t>
-  </si>
-  <si>
-    <t>Create Invoices Page</t>
-  </si>
-  <si>
-    <t>Step 10</t>
-  </si>
-  <si>
-    <t>BusinessUnit</t>
-  </si>
-  <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>InvoiceGroup</t>
-  </si>
-  <si>
-    <t>//div[@title='Tasks']</t>
-  </si>
-  <si>
-    <t>okbtn</t>
-  </si>
-  <si>
-    <t>//button[@id='_FOd1::msgDlg::cancel']</t>
-  </si>
-  <si>
-    <t>InvoiceNumber</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>LineAmt1</t>
-  </si>
-  <si>
-    <t>//div[@id='_FOpt1:_FOr1:0:_FOSritemNode_payables_payables_invoices:0:_FOTpsl1']</t>
-  </si>
-  <si>
-    <t>TaskDiv</t>
-  </si>
-  <si>
-    <t>Line2</t>
-  </si>
-  <si>
-    <t>LineAmt2</t>
-  </si>
-  <si>
-    <t>DistributionCombination1</t>
-  </si>
-  <si>
-    <t>DistributionCombination2</t>
-  </si>
-  <si>
-    <t>TasksPanelDiv</t>
-  </si>
-  <si>
-    <t>//div[contains(@id,'TLpanelform')][@class='x19']</t>
-  </si>
-  <si>
-    <t>//tr[td[1][label[text()='Business Unit']]]/td[2]/span/input</t>
-  </si>
-  <si>
-    <t>//tr[td[1][label[text()='Supplier']]]/td[2]/input</t>
-  </si>
-  <si>
-    <t>//tr[td[1][label[text()='Number']]]/td[2]/input</t>
-  </si>
-  <si>
-    <t>//tr[td[1][label[text()='Amount']]]/td[2]/table/tbody/tr/td[3]/table/tbody/tr/td[2]/span/input</t>
-  </si>
-  <si>
-    <t>//tr[td[1][label[text()='Date']]]/td[2]/input</t>
-  </si>
-  <si>
-    <t>//input[contains(@id,'ap1:at2:_ATp:ta2:0:i26::content')]</t>
-  </si>
-  <si>
-    <t>//input[contains(@id,':_ATp:ta2:0:kf1CS::content')]</t>
-  </si>
-  <si>
-    <t>//input[contains(@id,'at2:_ATp:ta2:1:i26::content')]</t>
-  </si>
-  <si>
-    <t>//input[contains(@id,'ap1:at2:_ATp:ta2:1:kf1CS::content')]</t>
-  </si>
-  <si>
-    <t>//a/span[text()='ave and Close']</t>
-  </si>
-  <si>
-    <t>SaveNClose</t>
-  </si>
-  <si>
-    <t>//a[text()='Manage Invoices']</t>
-  </si>
-  <si>
-    <t>ManageInvoicesLink</t>
-  </si>
-  <si>
-    <t>//tr[td[1][label[text()='Invoice Number']]]/td[2]/table/tbody/tr/td[2]/table/tbody/tr/td[1]/span/input</t>
-  </si>
-  <si>
-    <t>SearchInvoiceNo</t>
-  </si>
-  <si>
-    <t>SearchInvoiceGrp</t>
-  </si>
-  <si>
-    <t>//tr[td[1][label[text()='Invoice Group']]]/td[2]/table/tbody/tr/td[2]/table/tbody/tr/td[1]/span/input</t>
-  </si>
-  <si>
-    <t>//button[text()='Search']</t>
-  </si>
-  <si>
-    <t>SearchBtn</t>
-  </si>
-  <si>
-    <t>//table[@summary='Search Results']/tbody/tr/td[2]/span/a</t>
-  </si>
-  <si>
-    <t>InvoiceLink</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>//a[text()='Actions']</t>
-  </si>
-  <si>
-    <t>//td[text()='Validate']</t>
-  </si>
-  <si>
-    <t>ValidateLink</t>
-  </si>
-  <si>
-    <t>CheckValidatedStatus</t>
-  </si>
-  <si>
-    <t>//td[text()='Account in Draft']</t>
-  </si>
-  <si>
-    <t>AccountInDraftLink</t>
-  </si>
-  <si>
-    <t>ConfOk</t>
-  </si>
-  <si>
-    <t>//table[@summary='Status']/tbody/tr[3]/td[2]/span/span/a[text()='Draft']</t>
-  </si>
-  <si>
-    <t>AccountingStatusLink</t>
-  </si>
-  <si>
-    <t>//td[text()='Approval']</t>
-  </si>
-  <si>
-    <t>ApprovalLink</t>
-  </si>
-  <si>
-    <t>//td[text()='Initiate']</t>
-  </si>
-  <si>
-    <t>InitiateLink</t>
-  </si>
-  <si>
-    <t>//table[@summary='Status']/tbody/tr/td[2]/span/span[text()='Initiated']</t>
-  </si>
-  <si>
-    <t>InitateStatus</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>//a/span/span[@class='x1ig']</t>
-  </si>
-  <si>
-    <t>Manage Invoices Page</t>
-  </si>
-  <si>
-    <t>Step 12</t>
-  </si>
-  <si>
-    <t>Step 13</t>
-  </si>
-  <si>
-    <t>Step 14</t>
-  </si>
-  <si>
-    <t>Step 15</t>
-  </si>
-  <si>
-    <t>Step 16</t>
-  </si>
-  <si>
-    <t>Step 17</t>
-  </si>
-  <si>
-    <t>Step 18</t>
-  </si>
-  <si>
-    <t>Step 19</t>
-  </si>
-  <si>
-    <t>Step 20</t>
-  </si>
-  <si>
-    <t>Step 23</t>
-  </si>
-  <si>
-    <t>Step 27</t>
-  </si>
-  <si>
-    <t>Step 30</t>
-  </si>
-  <si>
-    <t>Step 31</t>
-  </si>
-  <si>
-    <t>Step 32</t>
-  </si>
-  <si>
-    <t>Step 34</t>
-  </si>
-  <si>
-    <t>Step 35</t>
-  </si>
-  <si>
-    <t>Step 36</t>
-  </si>
-  <si>
-    <t>Step 37</t>
-  </si>
-  <si>
-    <t>Step 38</t>
-  </si>
-  <si>
-    <t>Step 39</t>
-  </si>
-  <si>
-    <t>Step 40</t>
-  </si>
-  <si>
-    <t>Step 41</t>
-  </si>
-  <si>
-    <t>Step 42</t>
-  </si>
-  <si>
-    <t>Step 43</t>
-  </si>
-  <si>
-    <t>Step 44</t>
-  </si>
-  <si>
-    <t>Step 45</t>
-  </si>
-  <si>
-    <t>Step 46</t>
-  </si>
-  <si>
-    <t>Step 47</t>
-  </si>
-  <si>
-    <t>Step 48</t>
-  </si>
-  <si>
-    <t>Step 49</t>
-  </si>
-  <si>
-    <t>Step 50</t>
-  </si>
-  <si>
-    <t>Step 51</t>
-  </si>
-  <si>
-    <t>Step 52</t>
-  </si>
-  <si>
-    <t>Step 53</t>
-  </si>
-  <si>
-    <t>Step 54</t>
-  </si>
-  <si>
-    <t>Step 55</t>
-  </si>
-  <si>
-    <t>VerifyText</t>
-  </si>
-  <si>
-    <t>Validated</t>
-  </si>
-  <si>
-    <t>Step 56</t>
-  </si>
-  <si>
-    <t>Step 58</t>
-  </si>
-  <si>
-    <t>Step 60</t>
-  </si>
-  <si>
-    <t>UsernameClick</t>
-  </si>
-  <si>
-    <t>SettingsAndActions</t>
-  </si>
-  <si>
-    <t>SignOut</t>
-  </si>
-  <si>
-    <t>LogoutConsentDiv</t>
-  </si>
-  <si>
-    <t>ConfirmBtn</t>
-  </si>
-  <si>
-    <t>CloseBrowser</t>
-  </si>
-  <si>
-    <t>Step 75</t>
-  </si>
-  <si>
-    <t>Step 76</t>
-  </si>
-  <si>
-    <t>Step 77</t>
-  </si>
-  <si>
-    <t>Step 78</t>
-  </si>
-  <si>
-    <t>Step 79</t>
-  </si>
-  <si>
-    <t>Step 80</t>
-  </si>
-  <si>
-    <t>Step 81</t>
-  </si>
-  <si>
-    <t>Step 82</t>
-  </si>
-  <si>
-    <t>Step 83</t>
-  </si>
-  <si>
-    <t>//div[@class='xk9']</t>
-  </si>
-  <si>
-    <t>//a[contains(text(),'Sign Out')]</t>
-  </si>
-  <si>
-    <t>//div[@class='contentContainer']</t>
-  </si>
-  <si>
-    <t>//button[@name='Confirm']</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>//input[contains(@id,':_ATp:ta2:1:i34::content')]</t>
-  </si>
-  <si>
-    <t>Description2</t>
-  </si>
-  <si>
-    <t>//a[text()='Invoices']</t>
-  </si>
-  <si>
-    <t>NavigatorInvoicesLink</t>
-  </si>
-  <si>
-    <t>//tr[td[1][label[text()='Description']]]/td[2]/textarea</t>
-  </si>
-  <si>
-    <t>NeedsRevalidation</t>
-  </si>
-  <si>
-    <t>TotalWithTax</t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>InvoiceActions</t>
-  </si>
-  <si>
-    <t>//span[text()='Needs revalidation']</t>
-  </si>
-  <si>
-    <t>//div[div[span[text()='Total']]]/div[2]/table/tbody/tr/td[3]/span</t>
-  </si>
-  <si>
-    <t>Step 21</t>
-  </si>
-  <si>
-    <t>Step 22</t>
-  </si>
-  <si>
-    <t>SelectInvoice</t>
-  </si>
-  <si>
-    <t>Validation</t>
-  </si>
-  <si>
-    <t>EditInvoiceBtn</t>
-  </si>
-  <si>
-    <t>Edit Invoices Page</t>
-  </si>
-  <si>
-    <t>//table[@summary='Search Results']/tbody/tr/td[1]</t>
-  </si>
-  <si>
-    <t>//span[text()='Validation']</t>
-  </si>
-  <si>
-    <t>//div[@title='Edit']/a</t>
-  </si>
-  <si>
-    <t>//a[text()='Invoice Actions']</t>
-  </si>
-  <si>
-    <t>//a/span[text()='Save']</t>
-  </si>
-  <si>
-    <t>InvoiceType</t>
-  </si>
-  <si>
-    <t>//tr[td/label[text()='Type']]/td[2]/select</t>
-  </si>
-  <si>
-    <t>SelectItemByVisibleText</t>
-  </si>
-  <si>
-    <t>AssetLink</t>
-  </si>
-  <si>
-    <t>//a[text()='Asset']</t>
-  </si>
-  <si>
-    <t>TrackAsAsset</t>
-  </si>
-  <si>
-    <t>//a[text()='Distribution']</t>
-  </si>
-  <si>
-    <t>DistributionLink</t>
-  </si>
-  <si>
-    <t>Step 11</t>
-  </si>
-  <si>
-    <t>Step 59</t>
-  </si>
-  <si>
-    <t>Manage Transactions Asset Invoices</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>//*[@id="itemNode_payables_payables_invoices_1"]</t>
-  </si>
-  <si>
-    <t>ExpandLines</t>
-  </si>
-  <si>
-    <t>//*[@id="pt1:_FOr1:1:_FOSritemNode_payables_payables_invoices:0:MAnt2:1:pm1:r1:0:ap1:sh2::_afrDscl"]</t>
-  </si>
-  <si>
-    <t>//*[@id="pt1:_FOr1:1:_FOSritemNode_payables_payables_invoices:0:MAnt2:1:pm1:r1:0:ap1:cb43"]</t>
-  </si>
-  <si>
-    <t>Add Assets Page</t>
-  </si>
-  <si>
-    <t>Step 68</t>
-  </si>
-  <si>
-    <t>Step 69</t>
-  </si>
-  <si>
-    <t>Step 70</t>
-  </si>
-  <si>
-    <t>Step 71</t>
-  </si>
-  <si>
-    <t>Step 72</t>
-  </si>
-  <si>
-    <t>Step 73</t>
-  </si>
-  <si>
-    <t>Step 74</t>
-  </si>
-  <si>
-    <t>//a[contains(@id,'UIScmil1u')]</t>
-  </si>
-  <si>
-    <t>//a[text()='Payables']</t>
-  </si>
-  <si>
-    <t>Step 29</t>
-  </si>
-  <si>
-    <t>Requester</t>
-  </si>
-  <si>
-    <t>//tr[td[1][label[text()='Requester']]]/td[2]/input</t>
-  </si>
-  <si>
-    <t>//*[@id="pt1:_FOr1:1:_FOSritemNode_payables_payables_invoices:0:MAnt2:1:pm1:r1:0:ap1:r2:0:i1::content"]</t>
-  </si>
-  <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>WaitForDuration</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Step 24</t>
-  </si>
-  <si>
-    <t>Step 25</t>
-  </si>
-  <si>
-    <t>Step 26</t>
-  </si>
-  <si>
-    <t>Step 28</t>
-  </si>
-  <si>
-    <t>Step 33</t>
-  </si>
-  <si>
-    <t>Step 57</t>
-  </si>
-  <si>
-    <t>Step 61</t>
-  </si>
-  <si>
-    <t>Step 62</t>
-  </si>
-  <si>
-    <t>Step 63</t>
-  </si>
-  <si>
-    <t>Step 64</t>
-  </si>
-  <si>
-    <t>Step 65</t>
-  </si>
-  <si>
-    <t>Step 66</t>
-  </si>
-  <si>
-    <t>Step 67</t>
-  </si>
-  <si>
-    <t>Step 84</t>
-  </si>
-  <si>
-    <t>Step 85</t>
-  </si>
-  <si>
-    <t>Step 86</t>
-  </si>
-  <si>
-    <t>//*[contains(@id,'ta2::db')]/table/tbody/tr[1]/td[2]</t>
-  </si>
-  <si>
-    <t>//a[text()='Validated']</t>
-  </si>
-  <si>
-    <t>CHANGE HISTORY</t>
-  </si>
-  <si>
-    <t>LongExplicitWait</t>
-  </si>
-  <si>
-    <t>HighestExplicitWait</t>
-  </si>
-  <si>
-    <t>LowWait</t>
-  </si>
-  <si>
-    <t>MediumWait</t>
-  </si>
-  <si>
-    <t>HighWait</t>
-  </si>
-  <si>
-    <t>HighestWait</t>
-  </si>
-  <si>
-    <t>//table[@summary='Invoice Lines']/tbody/tr[@_afrrk='1']/td[1]</t>
   </si>
 </sst>
 </file>
@@ -997,6 +915,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1005,7 +924,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="51">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1264,24 +1183,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9250,26 +9151,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7827">
     <cellStyle name=" 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -17100,177 +16992,7 @@
     <cellStyle name="Warning Text 9" xfId="5939" xr:uid="{00000000-0005-0000-0000-0000911E0000}"/>
     <cellStyle name="Warning Text 9 2" xfId="7821" xr:uid="{00000000-0005-0000-0000-0000921E0000}"/>
   </cellStyles>
-  <dxfs count="99">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="82">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -18435,506 +18157,531 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E87"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.81640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.81640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.7265625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.26953125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.81640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.26953125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.21875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.77734375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.77734375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.21875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.77734375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.21875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="22" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.1796875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.6328125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.81640625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.21875" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.77734375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="14" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.81640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.1796875" style="3" collapsed="1"/>
+    <col min="13" max="13" width="14.77734375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.21875" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="13">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="I1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="8" t="s">
-        <v>248</v>
+      <c r="N1" s="7" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:14">
+      <c r="A2" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f t="shared" ref="D2:D58" si="0">_xlfn.CONCAT(G2," ",H2)</f>
+        <v>ExplicitWaitType Payables</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f t="shared" ref="E2:E58" si="1">_xlfn.CONCAT("Performed"," ",G2," ",H2)</f>
+        <v>Performed ExplicitWaitType Payables</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="str">
-        <f>_xlfn.CONCAT(G2," ",H2)</f>
-        <v xml:space="preserve">LaunchApplication </v>
-      </c>
-      <c r="E2" s="3" t="str">
-        <f>_xlfn.CONCAT("Performed"," ",G2," ",H2)</f>
-        <v xml:space="preserve">Performed LaunchApplication </v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K2" s="3"/>
       <c r="M2" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="N2" s="9"/>
+        <v>193</v>
+      </c>
+      <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14">
+      <c r="A3" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f t="shared" ref="D3:D66" si="0">_xlfn.CONCAT(G3," ",H3)</f>
-        <v>ExplicitWaitType username</v>
+        <f t="shared" si="0"/>
+        <v>ClickElement Payables</v>
       </c>
       <c r="E3" s="3" t="str">
-        <f t="shared" ref="E3:E66" si="1">_xlfn.CONCAT("Performed"," ",G3," ",H3)</f>
-        <v>Performed ExplicitWaitType username</v>
+        <f t="shared" si="1"/>
+        <v>Performed ClickElement Payables</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>249</v>
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="K3" s="3"/>
-      <c r="L3" s="11"/>
       <c r="M3" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:14">
+      <c r="A4" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement username</v>
+        <v>ExplicitWaitType Invoices</v>
       </c>
       <c r="E4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement username</v>
+        <v>Performed ExplicitWaitType Invoices</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>25</v>
+        <v>210</v>
       </c>
       <c r="K4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:14">
+      <c r="A5" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>SetText username</v>
+        <v>ClickElement Invoices</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed SetText username</v>
+        <v>Performed ClickElement Invoices</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="K5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:14">
+      <c r="A6" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>SetText password</v>
+        <v xml:space="preserve">WaitForDuration </v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed SetText password</v>
+        <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="K6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:14">
+      <c r="A7" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="B7" s="3" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>226</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement signin</v>
+        <v>ExplicitWaitType Tasks</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement signin</v>
+        <v>Performed ExplicitWaitType Tasks</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>25</v>
+        <v>210</v>
       </c>
       <c r="K7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:14">
+      <c r="A8" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="B8" s="3" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>227</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType Home</v>
+        <v>ClickElement Tasks</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType Home</v>
+        <v>Performed ClickElement Tasks</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="K8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="N8" s="9"/>
+        <v>193</v>
+      </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" ht="12" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="B9" s="3" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>49</v>
+        <v>228</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement Home</v>
+        <v>ExplicitWaitType TasksPanelDiv</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement Home</v>
+        <v>Performed ExplicitWaitType TasksPanelDiv</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="N9" s="9"/>
+        <v>193</v>
+      </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" ht="12" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="B10" s="3" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType Payables</v>
+        <v>ExplicitWaitType CreateInvoiceLink</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType Payables</v>
+        <v>Performed ExplicitWaitType CreateInvoiceLink</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>249</v>
+        <v>28</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="K10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="N10" s="9"/>
+        <v>193</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
+      <c r="A11" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="B11" s="3" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement Payables</v>
+        <v>ClickElement CreateInvoiceLink</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement Payables</v>
+        <v>Performed ClickElement CreateInvoiceLink</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K11" s="3"/>
       <c r="M11" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" ht="12" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="B12" s="3" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType Invoices</v>
+        <v>ExplicitWaitType BusinessUnit</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType Invoices</v>
+        <v>Performed ExplicitWaitType BusinessUnit</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>249</v>
+        <v>28</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="K12" s="3"/>
       <c r="M12" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:14">
+      <c r="A13" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="B13" s="3" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement Invoices</v>
+        <v>SetText BusinessUnit</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement Invoices</v>
+        <v>Performed SetText BusinessUnit</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="K13" s="3"/>
       <c r="M13" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -18945,513 +18692,502 @@
         <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>252</v>
+        <v>28</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="K14" s="3"/>
       <c r="M14" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType Tasks</v>
+        <v>ClickElement Date</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType Tasks</v>
+        <v>Performed ClickElement Date</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>50</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="K15" s="3"/>
       <c r="M15" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement Tasks</v>
+        <v>SetText Date</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement Tasks</v>
+        <v>Performed SetText Date</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>50</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="M16" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="12" customHeight="1">
+    <row r="17" spans="1:13">
       <c r="A17" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType TasksPanelDiv</v>
+        <v xml:space="preserve">WaitForDuration </v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType TasksPanelDiv</v>
+        <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>249</v>
+        <v>28</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="K17" s="3"/>
       <c r="M17" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="12" customHeight="1">
+    <row r="18" spans="1:13">
       <c r="A18" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType CreateInvoiceLink</v>
+        <v>ExplicitWaitType Supplier</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType CreateInvoiceLink</v>
+        <v>Performed ExplicitWaitType Supplier</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>249</v>
+        <v>28</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="K18" s="3"/>
       <c r="M18" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement CreateInvoiceLink</v>
+        <v>SetText Supplier</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement CreateInvoiceLink</v>
+        <v>Performed SetText Supplier</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K19" s="3"/>
       <c r="M19" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="12" customHeight="1">
+    <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType BusinessUnit</v>
+        <v xml:space="preserve">WaitForDuration </v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType BusinessUnit</v>
+        <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>249</v>
+        <v>28</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="K20" s="3"/>
       <c r="M20" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>SetText BusinessUnit</v>
+        <v>ClickElement Description</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed SetText BusinessUnit</v>
+        <v>Performed ClickElement Description</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="K21" s="3"/>
       <c r="M21" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">WaitForDuration </v>
+        <v>SetText Description</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
+        <v>Performed SetText Description</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>228</v>
+        <v>29</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>251</v>
+        <v>28</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="K22" s="3"/>
       <c r="M22" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement Date</v>
+        <v xml:space="preserve">WaitForDuration </v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement Date</v>
+        <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="K23" s="3"/>
       <c r="M23" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>SetText Date</v>
+        <v>ClickElement InvoiceNumber</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed SetText Date</v>
+        <v>Performed ClickElement InvoiceNumber</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="K24" s="3"/>
       <c r="M24" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">WaitForDuration </v>
+        <v>SetText InvoiceNumber</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
+        <v>Performed SetText InvoiceNumber</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>228</v>
+        <v>29</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>251</v>
+        <v>28</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="K25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType Supplier</v>
+        <v>ClickElement Requester</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType Supplier</v>
+        <v>Performed ClickElement Requester</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>249</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="I26" s="3"/>
       <c r="K26" s="3"/>
       <c r="M26" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>SetText Supplier</v>
+        <v>SetText Requester</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed SetText Supplier</v>
+        <v>Performed SetText Requester</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="K27" s="3"/>
       <c r="M27" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
@@ -19462,967 +19198,960 @@
         <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>251</v>
+        <v>28</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="K28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement Description</v>
+        <v>SetText Amount</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement Description</v>
+        <v>Performed SetText Amount</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J29" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="K29" s="3"/>
       <c r="M29" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>SetText Description</v>
+        <v xml:space="preserve">WaitForDuration </v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed SetText Description</v>
+        <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="K30" s="3"/>
       <c r="M30" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">WaitForDuration </v>
+        <v>ExplicitWaitType InvoiceType</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
+        <v>Performed ExplicitWaitType InvoiceType</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>228</v>
+        <v>34</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>253</v>
+        <v>28</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="K31" s="3"/>
       <c r="M31" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement InvoiceNumber</v>
+        <v>SelectItemByVisibleText InvoiceType</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement InvoiceNumber</v>
+        <v>Performed SelectItemByVisibleText InvoiceType</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J32" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="K32" s="3"/>
       <c r="M32" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>SetText InvoiceNumber</v>
+        <v>ExplicitWaitType ExpandLines</v>
       </c>
       <c r="E33" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed SetText InvoiceNumber</v>
+        <v>Performed ExplicitWaitType ExpandLines</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>62</v>
+        <v>210</v>
       </c>
       <c r="K33" s="3"/>
       <c r="M33" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="D34" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement Requester</v>
+        <v>ClickElement ExpandLines</v>
       </c>
       <c r="E34" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement Requester</v>
+        <v>Performed ClickElement ExpandLines</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+        <v>183</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K34" s="3"/>
       <c r="M34" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>SetText Requester</v>
+        <v xml:space="preserve">WaitForDuration </v>
       </c>
       <c r="E35" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed SetText Requester</v>
+        <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="K35" s="3"/>
       <c r="M35" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D36" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">WaitForDuration </v>
+        <v>ExplicitWaitType LineAmt1</v>
       </c>
       <c r="E36" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
+        <v>Performed ExplicitWaitType LineAmt1</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>228</v>
+        <v>34</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>251</v>
+        <v>28</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="K36" s="3"/>
       <c r="M36" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D37" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>SetText Amount</v>
+        <v>SetText LineAmt1</v>
       </c>
       <c r="E37" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed SetText Amount</v>
+        <v>Performed SetText LineAmt1</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K37" s="3"/>
       <c r="M37" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">WaitForDuration </v>
+        <v>ClickElement DistributionCombination1</v>
       </c>
       <c r="E38" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
+        <v>Performed ClickElement DistributionCombination1</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>228</v>
+        <v>17</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="K38" s="3"/>
       <c r="M38" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType InvoiceType</v>
+        <v>SetText DistributionCombination1</v>
       </c>
       <c r="E39" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType InvoiceType</v>
+        <v>Performed SetText DistributionCombination1</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>197</v>
+        <v>56</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>249</v>
+        <v>28</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="K39" s="3"/>
       <c r="M39" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="B40" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D40" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>SelectItemByVisibleText InvoiceType</v>
+        <v>ClickElement Description</v>
       </c>
       <c r="E40" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed SelectItemByVisibleText InvoiceType</v>
+        <v>Performed ClickElement Description</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>199</v>
+        <v>17</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="K40" s="3"/>
       <c r="M40" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="B41" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType ExpandLines</v>
+        <v>ClickElement AssetLink</v>
       </c>
       <c r="E41" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType ExpandLines</v>
+        <v>Performed ClickElement AssetLink</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="K41" s="3"/>
       <c r="M41" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D42" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement ExpandLines</v>
+        <v xml:space="preserve">WaitForDuration </v>
       </c>
       <c r="E42" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement ExpandLines</v>
+        <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J42" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="K42" s="3"/>
       <c r="M42" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="B43" s="3" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D43" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">WaitForDuration </v>
+        <v>ExplicitWaitType TrackAsAsset</v>
       </c>
       <c r="E43" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
+        <v>Performed ExplicitWaitType TrackAsAsset</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>228</v>
+        <v>34</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J43" s="12" t="s">
-        <v>252</v>
+        <v>28</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="K43" s="3"/>
       <c r="M43" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="B44" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D44" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType LineAmt1</v>
+        <v>ClickElement TrackAsAsset</v>
       </c>
       <c r="E44" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType LineAmt1</v>
+        <v>Performed ClickElement TrackAsAsset</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>249</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="I44" s="3"/>
       <c r="K44" s="3"/>
       <c r="M44" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D45" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>SetText LineAmt1</v>
+        <v xml:space="preserve">WaitForDuration </v>
       </c>
       <c r="E45" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed SetText LineAmt1</v>
+        <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>65</v>
+        <v>192</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="K45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D46" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement DistributionCombination1</v>
+        <v>ClickElement DistributionLink</v>
       </c>
       <c r="E46" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement DistributionCombination1</v>
+        <v>Performed ClickElement DistributionLink</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J46" s="3"/>
+        <v>18</v>
+      </c>
       <c r="K46" s="3"/>
       <c r="M46" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D47" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>SetText DistributionCombination1</v>
+        <v xml:space="preserve">WaitForDuration </v>
       </c>
       <c r="E47" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed SetText DistributionCombination1</v>
+        <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>70</v>
+        <v>28</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="K47" s="3"/>
       <c r="M47" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:13">
+      <c r="A48" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="B48" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D48" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement Description</v>
+        <v>ClickElement Line2</v>
       </c>
       <c r="E48" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement Description</v>
+        <v>Performed ClickElement Line2</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>174</v>
+        <v>54</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J48" s="3"/>
+        <v>18</v>
+      </c>
       <c r="K48" s="3"/>
       <c r="M48" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:13">
+      <c r="A49" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="B49" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D49" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement AssetLink</v>
+        <v>ExplicitWaitType LineAmt2</v>
       </c>
       <c r="E49" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement AssetLink</v>
+        <v>Performed ExplicitWaitType LineAmt2</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J49" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="K49" s="3"/>
       <c r="M49" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D50" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">WaitForDuration </v>
+        <v>SetText LineAmt2</v>
       </c>
       <c r="E50" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
+        <v>Performed SetText LineAmt2</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>228</v>
+        <v>29</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J50" s="13" t="s">
-        <v>251</v>
+        <v>28</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="K50" s="3"/>
       <c r="M50" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:13">
+      <c r="A51" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="B51" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D51" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType TrackAsAsset</v>
+        <v>ClickElement DistributionCombination2</v>
       </c>
       <c r="E51" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType TrackAsAsset</v>
+        <v>Performed ClickElement DistributionCombination2</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>202</v>
+        <v>57</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J51" s="14" t="s">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="K51" s="3"/>
       <c r="M51" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:13">
+      <c r="A52" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="B52" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D52" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement TrackAsAsset</v>
+        <v>SetText DistributionCombination2</v>
       </c>
       <c r="E52" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement TrackAsAsset</v>
+        <v>Performed SetText DistributionCombination2</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="K52" s="3"/>
       <c r="M52" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D53" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">WaitForDuration </v>
+        <v>ClickElement Description2</v>
       </c>
       <c r="E53" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
+        <v>Performed ClickElement Description2</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>228</v>
+        <v>17</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J53" s="13" t="s">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="K53" s="3"/>
       <c r="M53" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D54" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement DistributionLink</v>
+        <v>ClickElement Save</v>
       </c>
       <c r="E54" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement DistributionLink</v>
+        <v>Performed ClickElement Save</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J54" s="3"/>
+        <v>18</v>
+      </c>
       <c r="K54" s="3"/>
       <c r="M54" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D55" s="3" t="str">
         <f t="shared" si="0"/>
@@ -20433,1386 +20162,656 @@
         <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J55" s="13" t="s">
-        <v>251</v>
+        <v>28</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="K55" s="3"/>
       <c r="M55" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>54</v>
+        <v>166</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D56" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ClickElement Line2</v>
+        <v>ExplicitWaitType InvoiceActions</v>
       </c>
       <c r="E56" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ClickElement Line2</v>
+        <v>Performed ExplicitWaitType InvoiceActions</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J56" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="K56" s="3"/>
       <c r="M56" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="D57" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ExplicitWaitType LineAmt2</v>
+        <v>ClickElement InvoiceActions</v>
       </c>
       <c r="E57" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType LineAmt2</v>
+        <v>Performed ClickElement InvoiceActions</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J57" s="10" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="K57" s="3"/>
       <c r="M57" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" ht="12" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="D58" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>SetText LineAmt2</v>
+        <v>ExplicitWaitType ValidateLink</v>
       </c>
       <c r="E58" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Performed SetText LineAmt2</v>
+        <v>Performed ExplicitWaitType ValidateLink</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="K58" s="3"/>
       <c r="M58" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D59" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ClickElement DistributionCombination2</v>
+        <f t="shared" ref="D59:D70" si="2">_xlfn.CONCAT(G59," ",H59)</f>
+        <v>ClickElement ValidateLink</v>
       </c>
       <c r="E59" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ClickElement DistributionCombination2</v>
+        <f t="shared" ref="E59:E70" si="3">_xlfn.CONCAT("Performed"," ",G59," ",H59)</f>
+        <v>Performed ClickElement ValidateLink</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J59" s="3"/>
+        <v>18</v>
+      </c>
       <c r="K59" s="3"/>
       <c r="M59" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" ht="12" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="D60" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>SetText DistributionCombination2</v>
+        <f t="shared" si="2"/>
+        <v>ExplicitWaitType CheckValidatedStatus</v>
       </c>
       <c r="E60" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed SetText DistributionCombination2</v>
+        <f t="shared" si="3"/>
+        <v>Performed ExplicitWaitType CheckValidatedStatus</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>71</v>
+        <v>28</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="K60" s="3"/>
       <c r="M60" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:13">
+      <c r="A61" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="B61" s="3" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="D61" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ClickElement Description2</v>
+        <f t="shared" si="2"/>
+        <v>VerifyText CheckValidatedStatus</v>
       </c>
       <c r="E61" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ClickElement Description2</v>
+        <f t="shared" si="3"/>
+        <v>Performed VerifyText CheckValidatedStatus</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="M61" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="D62" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ClickElement Save</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">WaitForDuration </v>
       </c>
       <c r="E62" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ClickElement Save</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J62" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="K62" s="3"/>
       <c r="M62" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" ht="12" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="D63" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">WaitForDuration </v>
+        <f t="shared" si="2"/>
+        <v>ExplicitWaitType InvoiceActions</v>
       </c>
       <c r="E63" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
+        <f t="shared" si="3"/>
+        <v>Performed ExplicitWaitType InvoiceActions</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>228</v>
+        <v>34</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J63" s="14" t="s">
-        <v>254</v>
+        <v>28</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="K63" s="3"/>
       <c r="M63" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="D64" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ExplicitWaitType InvoiceActions</v>
+        <f t="shared" si="2"/>
+        <v>ClickElement InvoiceActions</v>
       </c>
       <c r="E64" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType InvoiceActions</v>
+        <f t="shared" si="3"/>
+        <v>Performed ClickElement InvoiceActions</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J64" s="10" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="K64" s="3"/>
       <c r="M64" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" ht="12" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="D65" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ClickElement InvoiceActions</v>
+        <f t="shared" si="2"/>
+        <v>ExplicitWaitType AccountInDraftLink</v>
       </c>
       <c r="E65" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ClickElement InvoiceActions</v>
+        <f t="shared" si="3"/>
+        <v>Performed ExplicitWaitType AccountInDraftLink</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J65" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="K65" s="3"/>
       <c r="M65" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="12" customHeight="1">
+    <row r="66" spans="1:13">
       <c r="A66" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="D66" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ExplicitWaitType ValidateLink</v>
+        <f t="shared" si="2"/>
+        <v>ClickElement AccountInDraftLink</v>
       </c>
       <c r="E66" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Performed ExplicitWaitType ValidateLink</v>
+        <f t="shared" si="3"/>
+        <v>Performed ClickElement AccountInDraftLink</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J66" s="10" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="K66" s="3"/>
       <c r="M66" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" ht="12" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="D67" s="3" t="str">
-        <f t="shared" ref="D67:D87" si="2">_xlfn.CONCAT(G67," ",H67)</f>
-        <v>ClickElement ValidateLink</v>
+        <f t="shared" si="2"/>
+        <v>ExplicitWaitType ConfOk</v>
       </c>
       <c r="E67" s="3" t="str">
-        <f t="shared" ref="E67:E87" si="3">_xlfn.CONCAT("Performed"," ",G67," ",H67)</f>
-        <v>Performed ClickElement ValidateLink</v>
+        <f t="shared" si="3"/>
+        <v>Performed ExplicitWaitType ConfOk</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J67" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="K67" s="3"/>
       <c r="M67" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="12" customHeight="1">
+    <row r="68" spans="1:13">
       <c r="A68" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="D68" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>ExplicitWaitType CheckValidatedStatus</v>
+        <v>ClickElement ConfOk</v>
       </c>
       <c r="E68" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Performed ExplicitWaitType CheckValidatedStatus</v>
+        <v>Performed ClickElement ConfOk</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J68" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="K68" s="3"/>
+        <v>87</v>
+      </c>
       <c r="M68" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="D69" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>VerifyText CheckValidatedStatus</v>
+        <v xml:space="preserve">WaitForDuration </v>
       </c>
       <c r="E69" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Performed VerifyText CheckValidatedStatus</v>
+        <v xml:space="preserve">Performed WaitForDuration </v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="J69" s="15" t="s">
-        <v>151</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K69" s="3"/>
       <c r="M69" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D70" s="3" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">WaitForDuration </v>
+        <v>ClickElement SaveNClose</v>
       </c>
       <c r="E70" s="3" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
+        <v>Performed ClickElement SaveNClose</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>228</v>
+        <v>17</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J70" s="13" t="s">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="K70" s="3"/>
       <c r="M70" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="12" customHeight="1">
-      <c r="A71" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D71" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ExplicitWaitType InvoiceActions</v>
-      </c>
-      <c r="E71" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ExplicitWaitType InvoiceActions</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J71" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="K71" s="3"/>
-      <c r="M71" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D72" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ClickElement InvoiceActions</v>
-      </c>
-      <c r="E72" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ClickElement InvoiceActions</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="M72" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="12" customHeight="1">
-      <c r="A73" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D73" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ExplicitWaitType AccountInDraftLink</v>
-      </c>
-      <c r="E73" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ExplicitWaitType AccountInDraftLink</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J73" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="K73" s="3"/>
-      <c r="M73" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D74" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ClickElement AccountInDraftLink</v>
-      </c>
-      <c r="E74" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ClickElement AccountInDraftLink</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="M74" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="12" customHeight="1">
-      <c r="A75" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D75" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ExplicitWaitType ConfOk</v>
-      </c>
-      <c r="E75" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ExplicitWaitType ConfOk</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J75" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="K75" s="3"/>
-      <c r="M75" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D76" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ClickElement ConfOk</v>
-      </c>
-      <c r="E76" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ClickElement ConfOk</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D77" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">WaitForDuration </v>
-      </c>
-      <c r="E77" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Performed WaitForDuration </v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J77" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="K77" s="3"/>
-      <c r="M77" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D78" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ClickElement SaveNClose</v>
-      </c>
-      <c r="E78" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ClickElement SaveNClose</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="M78" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="12" customHeight="1">
-      <c r="A79" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D79" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ExplicitWaitType Tasks</v>
-      </c>
-      <c r="E79" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ExplicitWaitType Tasks</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J79" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="K79" s="3"/>
-      <c r="M79" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" s="11" customFormat="1">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D80" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ExplicitWaitType UsernameClick</v>
-      </c>
-      <c r="E80" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ExplicitWaitType UsernameClick</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J80" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" s="11" customFormat="1">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D81" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ClickElement UsernameClick</v>
-      </c>
-      <c r="E81" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ClickElement UsernameClick</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" s="11" customFormat="1">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D82" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ExplicitWaitType SignOut</v>
-      </c>
-      <c r="E82" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ExplicitWaitType SignOut</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J82" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" s="11" customFormat="1">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D83" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ClickElement SignOut</v>
-      </c>
-      <c r="E83" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ClickElement SignOut</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" s="11" customFormat="1">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D84" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ExplicitWaitType LogoutConsentDiv</v>
-      </c>
-      <c r="E84" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ExplicitWaitType LogoutConsentDiv</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J84" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" s="11" customFormat="1">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D85" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ExplicitWaitType ConfirmBtn</v>
-      </c>
-      <c r="E85" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ExplicitWaitType ConfirmBtn</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J85" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-      <c r="M85" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" s="11" customFormat="1">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D86" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ClickElement ConfirmBtn</v>
-      </c>
-      <c r="E86" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>Performed ClickElement ConfirmBtn</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J86" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" s="11" customFormat="1">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D87" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">CloseBrowser </v>
-      </c>
-      <c r="E87" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Performed CloseBrowser </v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N87" xr:uid="{D59F34C6-85D7-4A44-8C9D-498958542685}"/>
+  <autoFilter ref="A1:N70" xr:uid="{D59F34C6-85D7-4A44-8C9D-498958542685}"/>
   <phoneticPr fontId="32" type="noConversion"/>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="98" priority="137"/>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="81" priority="137"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="duplicateValues" dxfId="97" priority="136"/>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="duplicateValues" dxfId="77" priority="132"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="duplicateValues" dxfId="96" priority="133"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J70">
-    <cfRule type="duplicateValues" dxfId="95" priority="131"/>
+  <conditionalFormatting sqref="H69">
+    <cfRule type="duplicateValues" dxfId="75" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="duplicateValues" dxfId="94" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="121"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J77">
-    <cfRule type="duplicateValues" dxfId="93" priority="127"/>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="duplicateValues" dxfId="73" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="123"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="duplicateValues" dxfId="92" priority="128"/>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="duplicateValues" dxfId="71" priority="112"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="duplicateValues" dxfId="91" priority="121"/>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="duplicateValues" dxfId="70" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="114"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="duplicateValues" dxfId="90" priority="122"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="123"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="duplicateValues" dxfId="88" priority="112"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="duplicateValues" dxfId="87" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="114"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="duplicateValues" dxfId="85" priority="106"/>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="duplicateValues" dxfId="67" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="duplicateValues" dxfId="84" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="105"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="duplicateValues" dxfId="83" priority="105"/>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="duplicateValues" dxfId="65" priority="103"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="duplicateValues" dxfId="82" priority="103"/>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="duplicateValues" dxfId="63" priority="99"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J36">
-    <cfRule type="duplicateValues" dxfId="81" priority="98"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="duplicateValues" dxfId="80" priority="99"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
-    <cfRule type="duplicateValues" dxfId="79" priority="96"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="duplicateValues" dxfId="78" priority="97"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63">
-    <cfRule type="duplicateValues" dxfId="77" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="duplicateValues" dxfId="76" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="75" priority="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="74" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="69"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="duplicateValues" dxfId="72" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="duplicateValues" dxfId="71" priority="59"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="duplicateValues" dxfId="70" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J55">
-    <cfRule type="duplicateValues" dxfId="68" priority="57"/>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="duplicateValues" dxfId="61" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="duplicateValues" dxfId="67" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H9">
-    <cfRule type="duplicateValues" dxfId="66" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="65" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="64" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="duplicateValues" dxfId="62" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H7">
-    <cfRule type="duplicateValues" dxfId="61" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="60" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="duplicateValues" dxfId="59" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="58" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="duplicateValues" dxfId="56" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="55" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="54" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="duplicateValues" dxfId="52" priority="138"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="duplicateValues" dxfId="51" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="duplicateValues" dxfId="50" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
+    <cfRule type="duplicateValues" dxfId="58" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="duplicateValues" dxfId="57" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="duplicateValues" dxfId="55" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="duplicateValues" dxfId="54" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="duplicateValues" dxfId="53" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="duplicateValues" dxfId="50" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
     <cfRule type="duplicateValues" dxfId="49" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
+  <conditionalFormatting sqref="H33">
     <cfRule type="duplicateValues" dxfId="48" priority="34"/>
     <cfRule type="duplicateValues" dxfId="47" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="H34">
     <cfRule type="duplicateValues" dxfId="46" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="H34">
     <cfRule type="duplicateValues" dxfId="45" priority="31"/>
     <cfRule type="duplicateValues" dxfId="44" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="duplicateValues" dxfId="43" priority="29"/>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="duplicateValues" dxfId="43" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="42" priority="24"/>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="duplicateValues" dxfId="40" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="duplicateValues" dxfId="41" priority="23"/>
+  <conditionalFormatting sqref="H43:H44">
+    <cfRule type="duplicateValues" dxfId="36" priority="146"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
-    <cfRule type="duplicateValues" dxfId="40" priority="10"/>
+  <conditionalFormatting sqref="H43:H44">
+    <cfRule type="duplicateValues" dxfId="35" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="148"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="duplicateValues" dxfId="39" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="duplicateValues" dxfId="38" priority="143"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="duplicateValues" dxfId="37" priority="144"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="145"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51:H52">
-    <cfRule type="duplicateValues" dxfId="35" priority="146"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51:H52">
-    <cfRule type="duplicateValues" dxfId="34" priority="147"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="148"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="duplicateValues" dxfId="32" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="duplicateValues" dxfId="31" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
-    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
-    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="duplicateValues" dxfId="33" priority="9"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" sqref="I2:I3 I5 I8 I10 I12 I14:I15 I17:I18 I20 I22 I25:I26 I28 I31 I36 I38:I39 I41 I43:I44 I50:I51 I53 I55 I57 I63:I64 I66 I68 I70:I71 I73 I75 I77 I79:I80 I82 I84:I85" xr:uid="{12739B51-EBE1-4BF9-9544-8F39280252B6}"/>
+    <dataValidation showInputMessage="1" sqref="I2 I4 I6:I7 I9:I10 I12 I14 I17:I18 I20 I23 I28 I30:I31 I33 I35:I36 I42:I43 I45 I47 I49 I55:I56 I58 I60 I62:I63 I65 I67 I69" xr:uid="{12739B51-EBE1-4BF9-9544-8F39280252B6}"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F1:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21826,928 +20825,931 @@
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="25.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="100.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.1796875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="3" max="3" width="100.77734375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.21875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.21875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="D32" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>222</v>
+        <v>32</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>83</v>
+        <v>220</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="3" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="3" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="D53" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="7" customFormat="1">
-      <c r="A56" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>45</v>
+    <row r="56" spans="1:4" s="6" customFormat="1">
+      <c r="A56" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>27</v>
+        <v>207</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="3" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="5" customFormat="1">
+    <row r="60" spans="1:4" s="4" customFormat="1">
       <c r="A60" s="2" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="C63" s="6"/>
+      <c r="C63" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D60">
     <sortCondition ref="A1"/>
   </sortState>
   <conditionalFormatting sqref="A54:A59 A11:A39 A1:A7 A45:A47 A61:A1048576">
-    <cfRule type="duplicateValues" dxfId="26" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A59 A11:A39 A1:A7 A45:A47 A61:A1048576">
-    <cfRule type="duplicateValues" dxfId="25" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="23" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="20" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:A44">
-    <cfRule type="duplicateValues" dxfId="17" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:A44">
-    <cfRule type="duplicateValues" dxfId="16" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A49">
-    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A49">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:A52">
-    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:A52">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F8:G9 F40:G44" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
